--- a/example.xlsx
+++ b/example.xlsx
@@ -259,7 +259,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
